--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_zine_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_zine_2023.xlsx
@@ -34,7 +34,7 @@
     <t>taxa_sucesso</t>
   </si>
   <si>
-    <t>valor_sucesso</t>
+    <t>arrecadado_sucesso</t>
   </si>
   <si>
     <t>media_sucesso</t>

--- a/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_zine_2023.xlsx
+++ b/analises/2023/analise_descritiva/dados/sint_resumo_por_mencoes_zine_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>geral_modalidade</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>max_sucesso</t>
+  </si>
+  <si>
+    <t>apoio_medio</t>
+  </si>
+  <si>
+    <t>contribuicoes</t>
+  </si>
+  <si>
+    <t>media_contribuicoes</t>
   </si>
   <si>
     <t>aon</t>
@@ -419,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -434,7 +443,7 @@
     <col min="11" max="11" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -468,10 +477,19 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -483,10 +501,10 @@
         <v>718</v>
       </c>
       <c r="E2" s="1">
-        <v>0.8771535580524344</v>
+        <v>87.71535580524345</v>
       </c>
       <c r="F2" s="1">
-        <v>0.6131511528608027</v>
+        <v>61.31511528608027</v>
       </c>
       <c r="G2" s="2">
         <v>21747572.18252111</v>
@@ -503,10 +521,19 @@
       <c r="K2" s="2">
         <v>679297.6600721752</v>
       </c>
+      <c r="L2">
+        <v>92.54049761504434</v>
+      </c>
+      <c r="M2">
+        <v>235006</v>
+      </c>
+      <c r="N2">
+        <v>327.3064066852368</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -518,10 +545,10 @@
         <v>112</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1228464419475655</v>
+        <v>12.28464419475655</v>
       </c>
       <c r="F3" s="1">
-        <v>0.6829268292682927</v>
+        <v>68.29268292682927</v>
       </c>
       <c r="G3" s="2">
         <v>2315707.644801917</v>
@@ -538,10 +565,19 @@
       <c r="K3" s="2">
         <v>161153.6281071717</v>
       </c>
+      <c r="L3">
+        <v>81.11912441944573</v>
+      </c>
+      <c r="M3">
+        <v>28547</v>
+      </c>
+      <c r="N3">
+        <v>254.8839285714286</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -553,10 +589,10 @@
         <v>1172</v>
       </c>
       <c r="E4" s="1">
-        <v>0.8555858310626703</v>
+        <v>85.55858310626702</v>
       </c>
       <c r="F4" s="1">
-        <v>0.9331210191082803</v>
+        <v>93.31210191082803</v>
       </c>
       <c r="G4" s="2">
         <v>16260444.86819449</v>
@@ -573,10 +609,19 @@
       <c r="K4" s="2">
         <v>708972.7845446636</v>
       </c>
+      <c r="L4">
+        <v>91.96147942061606</v>
+      </c>
+      <c r="M4">
+        <v>176818</v>
+      </c>
+      <c r="N4">
+        <v>150.8686006825939</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -588,10 +633,10 @@
         <v>211</v>
       </c>
       <c r="E5" s="1">
-        <v>0.1444141689373297</v>
+        <v>14.44141689373297</v>
       </c>
       <c r="F5" s="1">
-        <v>0.9952830188679245</v>
+        <v>99.52830188679245</v>
       </c>
       <c r="G5" s="2">
         <v>2101687.069364609</v>
@@ -608,10 +653,19 @@
       <c r="K5" s="2">
         <v>200069.5140664897</v>
       </c>
+      <c r="L5">
+        <v>78.3393122619878</v>
+      </c>
+      <c r="M5">
+        <v>26828</v>
+      </c>
+      <c r="N5">
+        <v>127.1469194312796</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -623,10 +677,10 @@
         <v>143</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9590643274853801</v>
+        <v>95.90643274853801</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2179878048780488</v>
+        <v>21.79878048780488</v>
       </c>
       <c r="G6" s="2">
         <v>42082.31178552777</v>
@@ -643,10 +697,19 @@
       <c r="K6" s="2">
         <v>5087.076865717208</v>
       </c>
+      <c r="L6">
+        <v>19.45553018286073</v>
+      </c>
+      <c r="M6">
+        <v>2163</v>
+      </c>
+      <c r="N6">
+        <v>15.12587412587413</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -658,10 +721,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>0.04093567251461988</v>
+        <v>4.093567251461988</v>
       </c>
       <c r="F7" s="1">
-        <v>0.3214285714285715</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="G7" s="2">
         <v>1104.645969257036</v>
@@ -677,6 +740,15 @@
       </c>
       <c r="K7" s="2">
         <v>538.4389998789497</v>
+      </c>
+      <c r="L7">
+        <v>24.5476882057119</v>
+      </c>
+      <c r="M7">
+        <v>45</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
